--- a/spreadsheet/macrofree/apim_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/apim_checklist.pt.xlsx
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure AD para autenticar usuários no Portal do Desenvolvedor</t>
+          <t>Usar o Microsoft Entra ID para autenticar usuários no Portal do Desenvolvedor</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Implantar em várias regiões do Azure</t>
+          <t>Para DR, aproveite o nível premium com implantações dimensionadas em duas ou mais regiões para um SLA de 99,99%</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Implante pelo menos duas unidades de escala distribuídas em duas zonas de disponibilidade por região para obter melhor disponibilidade e desempenho</t>
+          <t>Implante pelo menos uma unidade em duas ou mais zonas de disponibilidade para um SLA aumentado de 99,99%</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1800,12 +1800,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Desempenho e escalabilidade</t>
+          <t>Failover e cache</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de uma política de cache externo para APIs que podem se beneficiar do cache</t>
+          <t>Use Políticas para adicionar uma URL de back-end de failover e cache para reduzir chamadas com falha.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,19 +1822,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-cache-external</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/improve-api-performance-with-apim-caching-policy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/api-management/retry-policy</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>f96ddac5-77ec-4fa9-8833-4327f052059e</t>
+          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1855,13 +1851,13 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar registrar em níveis de alto desempenho, considere a política de Hubs de Eventos</t>
+          <t>Considere o uso de uma política de cache externo para APIs que podem se beneficiar do cache</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1872,15 +1868,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-log-event-hubs</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-cache-external</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/improve-api-performance-with-apim-caching-policy/</t>
+        </is>
+      </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>f96ddac5-77ec-4fa9-8833-4327f052059e</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1901,13 +1901,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Aplicar políticas de limitação para controlar o número de solicitações por segundo</t>
+          <t>Se você precisar registrar em níveis de alto desempenho, considere a política de Hubs de Eventos</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1918,19 +1918,15 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-sample-flexible-throttling</t>
-        </is>
-      </c>
-      <c r="I26" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-log-event-hubs</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1951,7 +1947,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Configurar o dimensionamento automático para dimensionar o número de instâncias quando a carga aumenta</t>
+          <t>Aplicar políticas de limitação para controlar o número de solicitações por segundo</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1968,14 +1964,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-autoscale</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-sample-flexible-throttling</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1996,7 +1997,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Implante gateways auto-hospedados onde o Azure não tem uma região próxima às APIs de back-end.</t>
+          <t>Configurar o dimensionamento automático para dimensionar o número de instâncias quando a carga aumenta</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2013,14 +2014,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-provision-self-hosted-gateway</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-autoscale</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2031,17 +2032,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Desempenho e escalabilidade</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure Front Door na frente do APIM para implantação em várias regiões</t>
+          <t>Implante gateways auto-hospedados onde o Azure não tem uma região próxima às APIs de back-end.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2058,14 +2059,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/front-door-api-management</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-provision-self-hosted-gateway</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2076,17 +2077,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Nível Premium</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implantar o serviço em uma rede virtual (VNet)</t>
+          <t>Use a camada premium para cargas de trabalho de produção.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2103,14 +2104,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#virtual-network-integration</t>
+          <t>https://learn.microsoft.com/azure/api-management/upgrade-and-scale#upgrade-and-scale</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2121,17 +2122,17 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Roteamento de Solicitações</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Implante NSG (grupos de segurança de rede) em suas sub-redes para restringir ou monitorar o tráfego de/para APIM.</t>
+          <t>No modelo de várias regiões, use Políticas para rotear as solicitações para back-ends regionais com base na disponibilidade ou latência.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2148,14 +2149,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#network-security-group-support</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-deploy-multi-region#-route-api-calls-to-regional-backend-services</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2166,23 +2167,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Limites de recursos</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Implante pontos de extremidade privados para filtrar o tráfego de entrada quando o APIM não for implantado em uma rede virtual.</t>
+          <t>Esteja atento aos limites da APIM</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2193,7 +2194,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#azure-private-link</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits#api-management-limits</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2201,7 +2202,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2212,17 +2213,17 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Auto-hospedado</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Desabilitar o acesso à rede pública</t>
+          <t>Certifique-se de que as implantações de gateway auto-hospedado sejam resilientes.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2239,7 +2240,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#disable-public-network-access</t>
+          <t>https://learn.microsoft.com/en-us/azure/api-management/self-hosted-gateway-overview</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2247,7 +2248,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2258,17 +2259,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Automação de plataformas e DevOps</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Automação</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Simplifique o gerenciamento com scripts de automação do PowerShell</t>
+          <t>Usar o Azure Front Door na frente do APIM para implantação em várias regiões</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2285,7 +2286,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/automation-manage-api-management</t>
+          <t>https://learn.microsoft.com/azure/api-management/front-door-api-management</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2293,7 +2294,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2304,17 +2305,17 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Automação de plataformas e DevOps</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Analise as práticas recomendadas de DevOps do Cloud Adaption Framework APIM Landing Zone Accelerator</t>
+          <t>Implantar o serviço em uma rede virtual (VNet)</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2331,7 +2332,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/app-platform/api-management/platform-automation-and-devops#design-recommendations</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#virtual-network-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2339,7 +2340,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2350,17 +2351,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Automação de plataformas e DevOps</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Promover o uso da extensão API do Visual Studio Code para um desenvolvimento de API mais rápido</t>
+          <t>Implante NSG (grupos de segurança de rede) em suas sub-redes para restringir ou monitorar o tráfego de/para APIM.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,7 +2378,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/visual-studio-code-tutorial</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#network-security-group-support</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2385,7 +2386,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2396,17 +2397,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Automação de plataformas e DevOps</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Implemente DevOps e CI/CD em seu fluxo de trabalho</t>
+          <t>Implante pontos de extremidade privados para filtrar o tráfego de entrada quando o APIM não for implantado em uma rede virtual.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2423,7 +2424,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/devops-api-development-templates</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#azure-private-link</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2431,7 +2432,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2442,23 +2443,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B38" s="21" t="inlineStr">
+        <is>
           <t>Segurança</t>
         </is>
       </c>
-      <c r="B38" s="21" t="inlineStr">
-        <is>
-          <t>Apis</t>
-        </is>
-      </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>APIs seguras usando autenticação de certificado de cliente</t>
+          <t>Desabilitar o acesso à rede pública</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2469,7 +2470,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-mutual-certificates-for-clients</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#disable-public-network-access</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2477,7 +2478,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2488,17 +2489,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de plataformas e DevOps</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Apis</t>
+          <t>Automação</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Serviços de back-end seguros usando autenticação de certificado de cliente</t>
+          <t>Simplifique o gerenciamento com scripts de automação do PowerShell</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2515,7 +2516,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-mutual-certificates</t>
+          <t>https://learn.microsoft.com/azure/api-management/automation-manage-api-management</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2523,7 +2524,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2534,17 +2535,17 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de plataformas e DevOps</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Apis</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Consulte o artigo "Recomendações para mitigar as 10 principais ameaças da segurança da API OWASP" e verifique o que é aplicável às suas APIs</t>
+          <t>Configure APIM via Infrastructure-as-code. Analise as práticas recomendadas de DevOps do Cloud Adaption Framework APIM Landing Zone Accelerator</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2561,7 +2562,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/mitigate-owasp-api-threats</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/app-platform/api-management/platform-automation-and-devops#design-recommendations</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2569,7 +2570,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2580,17 +2581,17 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de plataformas e DevOps</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Apis</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Usar o recurso Autorizações para simplificar o gerenciamento do token OAuth 2.0 para suas APIs de back-end</t>
+          <t>Promover o uso da extensão API do Visual Studio Code para um desenvolvimento de API mais rápido</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2607,7 +2608,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/authorizations-overview</t>
+          <t>https://learn.microsoft.com/azure/api-management/visual-studio-code-tutorial</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2615,7 +2616,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2626,23 +2627,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Automação de plataformas e DevOps</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Cifras</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do TLS ao criptografar informações em trânsito. Desative protocolos e cifras desatualizados e desnecessários quando possível.</t>
+          <t>Implemente DevOps e CI/CD em seu fluxo de trabalho</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2653,7 +2654,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-manage-protocols-ciphers</t>
+          <t>https://learn.microsoft.com/azure/api-management/devops-api-development-templates</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2661,7 +2662,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2677,18 +2678,18 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Proteção de dados</t>
+          <t>Apis</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os segredos (valores nomeados) sejam armazenados em um Cofre de Chaves do Azure para que possam ser acessados e atualizados com segurança</t>
+          <t>APIs seguras usando autenticação de certificado de cliente</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2699,7 +2700,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#im-8-restrict-the-exposure-of-credential-and-secrets</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-mutual-certificates-for-clients</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2707,7 +2708,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2723,12 +2724,12 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identidades</t>
+          <t>Apis</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use identidades gerenciadas para autenticar em outros recursos do Azure sempre que possível</t>
+          <t>Serviços de back-end seguros usando autenticação de certificado de cliente</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2745,7 +2746,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-mutual-certificates</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2753,7 +2754,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2769,18 +2770,18 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Apis</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Usar o WAF (Web Application Firewall) implantando o Application Gateway na frente do APIM</t>
+          <t>Consulte o artigo "Recomendações para mitigar as 10 principais ameaças da segurança da API OWASP" e verifique o que é aplicável às suas APIs</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2791,14 +2792,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#ns-6-deploy-web-application-firewall</t>
+          <t>https://learn.microsoft.com/azure/api-management/mitigate-owasp-api-threats</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2807,83 +2808,228 @@
       <c r="P45" s="25" t="n"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="n"/>
+      <c r="A46" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>Apis</t>
+        </is>
+      </c>
+      <c r="C46" s="21" t="inlineStr">
+        <is>
+          <t>Usar o recurso Autorizações para simplificar o gerenciamento do token OAuth 2.0 para suas APIs de back-end</t>
+        </is>
+      </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/api-management/authorizations-overview</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="n"/>
+      <c r="L46" s="25" t="inlineStr">
+        <is>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+        </is>
+      </c>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Cifras</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Use a versão mais recente do TLS ao criptografar informações em trânsito. Desative protocolos e cifras desatualizados e desnecessários quando possível.</t>
+        </is>
+      </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-manage-protocols-ciphers</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Proteção de dados</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de que os segredos (valores nomeados) sejam armazenados em um Cofre de Chaves do Azure para que possam ser acessados e atualizados com segurança</t>
+        </is>
+      </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#im-8-restrict-the-exposure-of-credential-and-secrets</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Identidades</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Use identidades gerenciadas para autenticar em outros recursos do Azure sempre que possível</t>
+        </is>
+      </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#managed-identities</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Rede</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Usar o WAF (Web Application Firewall) implantando o Application Gateway na frente do APIM</t>
+        </is>
+      </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#ns-6-deploy-web-application-firewall</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
@@ -6917,7 +7063,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
